--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\ALFREDO\Archivos Compu DELL\Escritorio\MRV MINEM 1.0 Tercer Entregable-Mantenimientos\Enfoque excel\Excel enfoque generacion distribuida\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5784A8-A15B-463B-BA27-5970CC014535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125558E-D710-4EF2-8323-4FABEF1DFF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
   </bookViews>
   <sheets>
     <sheet name="Generación Distribuida" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Año al que correponde el registro.
 </t>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Fecha en que se efectúa el registro en este formulario.
 </t>
@@ -76,7 +76,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valor de electricidad generada por centrales tipo solar, eólica y mini hidro.
 </t>
@@ -142,14 +142,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:C311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="5">
         <v>43866</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="5">
         <v>43501</v>
@@ -675,15 +675,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43530</v>
-      </c>
-      <c r="C6" s="14">
-        <v>36497</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F63CF76-188C-41B2-A136-60AEE960A545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57A392-A728-4BDE-A8C3-FA5E1349E8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
   </bookViews>
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -549,7 +549,7 @@
   <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,19 +1820,19 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
-      <c r="B311" s="5"/>
+      <c r="B311" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sn9aNr1O0XNzZ6DP2fEkb/lxJsnO3oS9x5u3IIaeKtSQPpO90dUtSAUhFHI1eFoDZGPzBavGrVHaT599HvyDdA==" saltValue="XiTa+wmqdyPOIUpabHCRhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cUnQRxAEiyvGrYmvRSPmgUsyWPay/7xrnWej4ocxgboD8akgigaKJWCyyEw/S1BkXBzIQVEl9FDdlTkSMIy2ZQ==" saltValue="KfSQtNrJkyRFDvH4esbBAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{6613DF2B-F5D9-4631-A280-D26EEEEF88C3}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B6:B310" xr:uid="{87174902-7F7B-4266-A824-BF5BE16CC979}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B6 B8 B10 B12 B14 B16 B18 B20 B22 B24 B26 B28 B30 B32 B34 B36 B38 B40 B42 B44 B46 B48 B50 B52 B54 B56 B58 B60 B62 B64 B66 B68 B70 B72 B74 B76 B78 B80 B82 B84 B86 B88 B90 B92 B94 B96 B98 B100 B102 B104 B106 B108 B110 B112 B114 B116 B118 B120 B122 B124 B126 B128 B130 B132 B134 B136 B138 B140 B142 B144 B146 B148 B150 B152 B154 B156 B158 B160 B162 B164 B166 B168 B170 B172 B174 B176 B178 B180 B182 B184 B186 B188 B190 B192 B194 B196 B198 B200 B202 B204 B206 B208 B210 B212 B214 B216 B218 B220 B222 B224 B226 B228 B230 B232 B234 B236 B238 B240 B242 B244 B246 B248 B250 B252 B254 B256 B258 B260 B262 B264 B266 B268 B270 B272 B274 B276 B278 B280 B282 B284 B286 B288 B290 B292 B294 B296 B298 B300 B302 B304 B306 B308 B310" xr:uid="{87174902-7F7B-4266-A824-BF5BE16CC979}">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" showErrorMessage="1" prompt="_x000a_" sqref="B5" xr:uid="{8BA3640D-2C3A-461A-8F28-AC9CF8857833}">
+    <dataValidation type="whole" showErrorMessage="1" prompt="_x000a_" sqref="B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B31 B33 B35 B37 B39 B41 B43 B45 B47 B49 B51 B53 B55 B57 B59 B61 B63 B65 B67 B69 B71 B73 B75 B77 B79 B81 B83 B85 B87 B89 B91 B93 B95 B97 B99 B101 B103 B105 B107 B109 B111 B113 B115 B117 B119 B121 B123 B125 B127 B129 B131 B133 B135 B137 B139 B141 B143 B145 B147 B149 B151 B153 B155 B157 B159 B161 B163 B165 B167 B169 B171 B173 B175 B177 B179 B181 B183 B185 B187 B189 B191 B193 B195 B197 B199 B201 B203 B205 B207 B209 B211 B213 B215 B217 B219 B221 B223 B225 B227 B229 B231 B233 B235 B237 B239 B241 B243 B245 B247 B249 B251 B253 B255 B257 B259 B261 B263 B265 B267 B269 B271 B273 B275 B277 B279 B281 B283 B285 B287 B289 B291 B293 B295 B297 B299 B301 B303 B305 B307 B309 B311" xr:uid="{8BA3640D-2C3A-461A-8F28-AC9CF8857833}">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57A392-A728-4BDE-A8C3-FA5E1349E8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431ADA5D-1E7D-4C86-BFBE-0FCA91BE2976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
   </bookViews>
@@ -18,6 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="Lista_Anno">Hoja2!$A$4:$A$19</definedName>
+    <definedName name="Lista_GD">Hoja2!$D$4</definedName>
+    <definedName name="Tabla_GD">Hoja2!$D$4:$E$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,66 +36,39 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dell</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3FBB5FE5-2520-4398-84F9-D2239F6F1D14}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Año al que correponde el registro.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F4CEB6C8-AEB9-4507-A47F-BA9AA22882A2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valor de electricidad generada por centrales tipo solar, eólica y mini hidro.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Año</t>
   </si>
   <si>
-    <t>Electricidad Generada</t>
+    <t>Unidad GD</t>
   </si>
   <si>
-    <t xml:space="preserve">Año al que correponde el registro.
+    <t>Nª</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año al que correponde el registro. Seleccione de la lista desplegable.
 </t>
   </si>
   <si>
-    <t>Valor de electricidad generada por centrales tipo solar, eólica y mini hidro.</t>
+    <t>Electricidad generada por los sistemas fotovoltaicos instalados. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
+  <si>
+    <t>Electricidad Generada (MWh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,27 +85,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,18 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -222,15 +190,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,1380 +536,1395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA5F966-3BCC-48C6-8C39-09599D1E923A}">
-  <dimension ref="A1:B311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA5F966-3BCC-48C6-8C39-09599D1E923A}">
+  <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2018</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="8">
         <v>6247</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="4">
-        <v>36497</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="4">
-        <v>36497</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="9"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="9"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="9"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="9"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="9"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="9"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="9"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="9"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="9"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="9"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="9"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="9"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="9"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="9"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="9"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="9"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="9"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="9"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="9"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="9"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="9"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="9"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="9"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="9"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="9"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="9"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="9"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="9"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="5"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="9"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="9"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="9"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="9"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="9"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="9"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="5"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="9"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="5"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="9"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="5"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="9"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="5"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="9"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="9"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="5"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164" s="9"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="5"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="9"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="5"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="9"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="5"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="9"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="5"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="9"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="5"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="9"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="5"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="9"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="5"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="9"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="5"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="9"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="5"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="9"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="5"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="9"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="5"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="9"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="B176" s="9"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="5"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="9"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="5"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="9"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="5"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179" s="9"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="9"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="9"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="5"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="B182" s="9"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="5"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="9"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="B184" s="9"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="5"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="B185" s="9"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="9"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="5"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="9"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="9"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="5"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
-      <c r="B189" s="9"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
-      <c r="B190" s="9"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="9"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="9"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="5"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="9"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="9"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="5"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
-      <c r="B195" s="9"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="5"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="9"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="5"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
-      <c r="B197" s="9"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="5"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
-      <c r="B198" s="9"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
-      <c r="B199" s="9"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="B200" s="9"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
-      <c r="B201" s="9"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="5"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="9"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="5"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
-      <c r="B203" s="9"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="5"/>
-      <c r="B204" s="9"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="5"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
-      <c r="B205" s="9"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="5"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
-      <c r="B206" s="9"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="5"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="9"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="5"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
-      <c r="B208" s="9"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="5"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
-      <c r="B209" s="9"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="5"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="9"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="5"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
-      <c r="B211" s="9"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="5"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
-      <c r="B212" s="9"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="9"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="5"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="9"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="5"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="9"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="5"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="9"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="5"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="9"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="9"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="5"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="9"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="5"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="9"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
-      <c r="B221" s="9"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
-      <c r="B222" s="9"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="5"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
-      <c r="B223" s="9"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="5"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
-      <c r="B224" s="9"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="5"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
-      <c r="B225" s="9"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="5"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
-      <c r="B226" s="9"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="5"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
-      <c r="B227" s="9"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="5"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
-      <c r="B228" s="9"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
-      <c r="B229" s="9"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
-      <c r="B230" s="9"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="5"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
-      <c r="B231" s="9"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="5"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="5"/>
-      <c r="B232" s="9"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="5"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="5"/>
-      <c r="B233" s="9"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="5"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
-      <c r="B234" s="9"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
-      <c r="B235" s="9"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="5"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
-      <c r="B236" s="9"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
-      <c r="B237" s="9"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="5"/>
-      <c r="B238" s="9"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="5"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="5"/>
-      <c r="B239" s="9"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="5"/>
-      <c r="B240" s="9"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="5"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
-      <c r="B241" s="9"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="5"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
-      <c r="B242" s="9"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="5"/>
-      <c r="B243" s="9"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="5"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="5"/>
-      <c r="B244" s="9"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="5"/>
-      <c r="B245" s="9"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="5"/>
-      <c r="B246" s="9"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="5"/>
-      <c r="B247" s="9"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="5"/>
-      <c r="B248" s="9"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="5"/>
-      <c r="B249" s="9"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
-      <c r="B250" s="9"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
-      <c r="B251" s="9"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="5"/>
-      <c r="B252" s="9"/>
+      <c r="A252" s="3"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="5"/>
-      <c r="B253" s="9"/>
+      <c r="A253" s="3"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="5"/>
-      <c r="B254" s="9"/>
+      <c r="A254" s="3"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="5"/>
-      <c r="B255" s="9"/>
+      <c r="A255" s="3"/>
+      <c r="B255" s="5"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="5"/>
-      <c r="B256" s="9"/>
+      <c r="A256" s="3"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="5"/>
-      <c r="B257" s="9"/>
+      <c r="A257" s="3"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="5"/>
-      <c r="B258" s="9"/>
+      <c r="A258" s="3"/>
+      <c r="B258" s="5"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="5"/>
-      <c r="B259" s="9"/>
+      <c r="A259" s="3"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="5"/>
-      <c r="B260" s="9"/>
+      <c r="A260" s="3"/>
+      <c r="B260" s="5"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="5"/>
-      <c r="B261" s="9"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="5"/>
-      <c r="B262" s="9"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="5"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="5"/>
-      <c r="B263" s="9"/>
+      <c r="A263" s="3"/>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="5"/>
-      <c r="B264" s="9"/>
+      <c r="A264" s="3"/>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="5"/>
-      <c r="B265" s="9"/>
+      <c r="A265" s="3"/>
+      <c r="B265" s="5"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="5"/>
-      <c r="B266" s="9"/>
+      <c r="A266" s="3"/>
+      <c r="B266" s="5"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="5"/>
-      <c r="B267" s="9"/>
+      <c r="A267" s="3"/>
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="5"/>
-      <c r="B268" s="9"/>
+      <c r="A268" s="3"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="5"/>
-      <c r="B269" s="9"/>
+      <c r="A269" s="3"/>
+      <c r="B269" s="5"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="5"/>
-      <c r="B270" s="9"/>
+      <c r="A270" s="3"/>
+      <c r="B270" s="5"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
-      <c r="B271" s="9"/>
+      <c r="A271" s="3"/>
+      <c r="B271" s="5"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="5"/>
-      <c r="B272" s="9"/>
+      <c r="A272" s="3"/>
+      <c r="B272" s="5"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="5"/>
-      <c r="B273" s="9"/>
+      <c r="A273" s="3"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="5"/>
-      <c r="B274" s="9"/>
+      <c r="A274" s="3"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="5"/>
-      <c r="B275" s="9"/>
+      <c r="A275" s="3"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
-      <c r="B276" s="9"/>
+      <c r="A276" s="3"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="5"/>
-      <c r="B277" s="9"/>
+      <c r="A277" s="3"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
-      <c r="B278" s="9"/>
+      <c r="A278" s="3"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="5"/>
-      <c r="B279" s="9"/>
+      <c r="A279" s="3"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="5"/>
-      <c r="B280" s="9"/>
+      <c r="A280" s="3"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="5"/>
-      <c r="B281" s="9"/>
+      <c r="A281" s="3"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
-      <c r="B282" s="9"/>
+      <c r="A282" s="3"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="5"/>
-      <c r="B283" s="9"/>
+      <c r="A283" s="3"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="5"/>
-      <c r="B284" s="9"/>
+      <c r="A284" s="3"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="5"/>
-      <c r="B285" s="9"/>
+      <c r="A285" s="3"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
-      <c r="B286" s="9"/>
+      <c r="A286" s="3"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="5"/>
-      <c r="B287" s="9"/>
+      <c r="A287" s="3"/>
+      <c r="B287" s="5"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="5"/>
-      <c r="B288" s="9"/>
+      <c r="A288" s="3"/>
+      <c r="B288" s="5"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="5"/>
-      <c r="B289" s="9"/>
+      <c r="A289" s="3"/>
+      <c r="B289" s="5"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="5"/>
-      <c r="B290" s="9"/>
+      <c r="A290" s="3"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="5"/>
-      <c r="B291" s="9"/>
+      <c r="A291" s="3"/>
+      <c r="B291" s="5"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="5"/>
-      <c r="B292" s="9"/>
+      <c r="A292" s="3"/>
+      <c r="B292" s="5"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="5"/>
-      <c r="B293" s="9"/>
+      <c r="A293" s="3"/>
+      <c r="B293" s="5"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="5"/>
-      <c r="B294" s="9"/>
+      <c r="A294" s="3"/>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="5"/>
-      <c r="B295" s="9"/>
+      <c r="A295" s="3"/>
+      <c r="B295" s="5"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="5"/>
-      <c r="B296" s="9"/>
+      <c r="A296" s="3"/>
+      <c r="B296" s="5"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="5"/>
-      <c r="B297" s="9"/>
+      <c r="A297" s="3"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="5"/>
-      <c r="B298" s="9"/>
+      <c r="A298" s="3"/>
+      <c r="B298" s="5"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="5"/>
-      <c r="B299" s="9"/>
+      <c r="A299" s="3"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
-      <c r="B300" s="9"/>
+      <c r="A300" s="3"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="5"/>
-      <c r="B301" s="9"/>
+      <c r="A301" s="3"/>
+      <c r="B301" s="5"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="5"/>
-      <c r="B302" s="9"/>
+      <c r="A302" s="3"/>
+      <c r="B302" s="5"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="5"/>
-      <c r="B303" s="9"/>
+      <c r="A303" s="3"/>
+      <c r="B303" s="5"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="5"/>
-      <c r="B304" s="9"/>
+      <c r="A304" s="3"/>
+      <c r="B304" s="5"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="5"/>
-      <c r="B305" s="9"/>
+      <c r="A305" s="3"/>
+      <c r="B305" s="5"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="5"/>
-      <c r="B306" s="9"/>
+      <c r="A306" s="3"/>
+      <c r="B306" s="5"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="5"/>
-      <c r="B307" s="9"/>
+      <c r="A307" s="3"/>
+      <c r="B307" s="5"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="5"/>
-      <c r="B308" s="9"/>
+      <c r="A308" s="3"/>
+      <c r="B308" s="5"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="5"/>
-      <c r="B309" s="9"/>
+      <c r="A309" s="3"/>
+      <c r="B309" s="5"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="5"/>
-      <c r="B310" s="9"/>
+      <c r="A310" s="3"/>
+      <c r="B310" s="5"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="5"/>
-      <c r="B311" s="9"/>
+      <c r="A311" s="3"/>
+      <c r="B311" s="5"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="3"/>
+      <c r="B312" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cUnQRxAEiyvGrYmvRSPmgUsyWPay/7xrnWej4ocxgboD8akgigaKJWCyyEw/S1BkXBzIQVEl9FDdlTkSMIy2ZQ==" saltValue="KfSQtNrJkyRFDvH4esbBAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8cTvTiU4B9LjzLXrA3u+rlRBCt2Q8DNLskHOzBmFZ0wO3F3p8YoSuD6BgW6bFA/T+0gRcf8t8TBf1Yq9iulO8Q==" saltValue="twRCtuSEAfmYKvfPZHH6QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{6613DF2B-F5D9-4631-A280-D26EEEEF88C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{6613DF2B-F5D9-4631-A280-D26EEEEF88C3}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 B6 B8 B10 B12 B14 B16 B18 B20 B22 B24 B26 B28 B30 B32 B34 B36 B38 B40 B42 B44 B46 B48 B50 B52 B54 B56 B58 B60 B62 B64 B66 B68 B70 B72 B74 B76 B78 B80 B82 B84 B86 B88 B90 B92 B94 B96 B98 B100 B102 B104 B106 B108 B110 B112 B114 B116 B118 B120 B122 B124 B126 B128 B130 B132 B134 B136 B138 B140 B142 B144 B146 B148 B150 B152 B154 B156 B158 B160 B162 B164 B166 B168 B170 B172 B174 B176 B178 B180 B182 B184 B186 B188 B190 B192 B194 B196 B198 B200 B202 B204 B206 B208 B210 B212 B214 B216 B218 B220 B222 B224 B226 B228 B230 B232 B234 B236 B238 B240 B242 B244 B246 B248 B250 B252 B254 B256 B258 B260 B262 B264 B266 B268 B270 B272 B274 B276 B278 B280 B282 B284 B286 B288 B290 B292 B294 B296 B298 B300 B302 B304 B306 B308 B310" xr:uid="{87174902-7F7B-4266-A824-BF5BE16CC979}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B31 B33 B35 B37 B39 B41 B43 B45 B47 B49 B51 B53 B55 B57 B59 B61 B63 B65 B67 B69 B71 B73 B75 B77 B79 B81 B83 B85 B87 B89 B91 B93 B95 B97 B99 B101 B103 B105 B107 B109 B111 B113 B115 B117 B119 B121 B123 B125 B127 B129 B131 B133 B135 B137 B139 B141 B143 B145 B147 B149 B151 B153 B155 B157 B159 B161 B163 B165 B167 B169 B171 B173 B175 B177 B179 B181 B183 B185 B187 B189 B191 B193 B195 B197 B199 B201 B203 B205 B207 B209 B211 B213 B215 B217 B219 B221 B223 B225 B227 B229 B231 B233 B235 B237 B239 B241 B243 B245 B247 B249 B251 B253 B255 B257 B259 B261 B263 B265 B267 B269 B271 B273 B275 B277 B279 B281 B283 B285 B287 B289 B291 B293 B295 B297 B299 B301 B303 B305 B307 B309 B311" xr:uid="{87174902-7F7B-4266-A824-BF5BE16CC979}">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" showErrorMessage="1" prompt="_x000a_" sqref="B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B31 B33 B35 B37 B39 B41 B43 B45 B47 B49 B51 B53 B55 B57 B59 B61 B63 B65 B67 B69 B71 B73 B75 B77 B79 B81 B83 B85 B87 B89 B91 B93 B95 B97 B99 B101 B103 B105 B107 B109 B111 B113 B115 B117 B119 B121 B123 B125 B127 B129 B131 B133 B135 B137 B139 B141 B143 B145 B147 B149 B151 B153 B155 B157 B159 B161 B163 B165 B167 B169 B171 B173 B175 B177 B179 B181 B183 B185 B187 B189 B191 B193 B195 B197 B199 B201 B203 B205 B207 B209 B211 B213 B215 B217 B219 B221 B223 B225 B227 B229 B231 B233 B235 B237 B239 B241 B243 B245 B247 B249 B251 B253 B255 B257 B259 B261 B263 B265 B267 B269 B271 B273 B275 B277 B279 B281 B283 B285 B287 B289 B291 B293 B295 B297 B299 B301 B303 B305 B307 B309 B311" xr:uid="{8BA3640D-2C3A-461A-8F28-AC9CF8857833}">
+    <dataValidation type="whole" showErrorMessage="1" prompt="_x000a_" sqref="B6 B8 B10 B12 B14 B16 B18 B20 B22 B24 B26 B28 B30 B32 B34 B36 B38 B40 B42 B44 B46 B48 B50 B52 B54 B56 B58 B60 B62 B64 B66 B68 B70 B72 B74 B76 B78 B80 B82 B84 B86 B88 B90 B92 B94 B96 B98 B100 B102 B104 B106 B108 B110 B112 B114 B116 B118 B120 B122 B124 B126 B128 B130 B132 B134 B136 B138 B140 B142 B144 B146 B148 B150 B152 B154 B156 B158 B160 B162 B164 B166 B168 B170 B172 B174 B176 B178 B180 B182 B184 B186 B188 B190 B192 B194 B196 B198 B200 B202 B204 B206 B208 B210 B212 B214 B216 B218 B220 B222 B224 B226 B228 B230 B232 B234 B236 B238 B240 B242 B244 B246 B248 B250 B252 B254 B256 B258 B260 B262 B264 B266 B268 B270 B272 B274 B276 B278 B280 B282 B284 B286 B288 B290 B292 B294 B296 B298 B300 B302 B304 B306 B308 B310 B312" xr:uid="{8BA3640D-2C3A-461A-8F28-AC9CF8857833}">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616CFF97-73C2-4BE9-A515-0B1EF0824E2B}">
-  <dimension ref="A3:A19"/>
+  <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2026</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2027</v>
       </c>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431ADA5D-1E7D-4C86-BFBE-0FCA91BE2976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD9EB8-D3EC-436D-AB23-1DF3A56D9E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
   </bookViews>
   <sheets>
     <sheet name="Generación Distribuida" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Lista_Anno">Hoja2!$A$4:$A$19</definedName>
+    <definedName name="Lista_Anno">Hoja2!$A$4:$A$24</definedName>
     <definedName name="Lista_GD">Hoja2!$D$4</definedName>
     <definedName name="Tabla_GD">Hoja2!$D$4:$E$4</definedName>
   </definedNames>
@@ -55,19 +55,23 @@
 </t>
   </si>
   <si>
-    <t>Electricidad generada por los sistemas fotovoltaicos instalados. Inserte su dato.</t>
-  </si>
-  <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
     <t>Electricidad Generada (MWh)</t>
+  </si>
+  <si>
+    <t>Electricidad generada por sistemas fotovoltaicos en el año. Inserte su dato.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,9 +197,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -199,29 +206,33 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,1279 +551,1279 @@
   <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2018</v>
       </c>
-      <c r="B4" s="8">
-        <v>6247</v>
+      <c r="B4" s="11">
+        <v>1.6136999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="5"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="5"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="5"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="5"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="5"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="5"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="5"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="5"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="5"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="5"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="5"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="5"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="5"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="5"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="5"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="5"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="5"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="5"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="5"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="5"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="5"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="5"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="5"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="5"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="5"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="5"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="5"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="5"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="B103" s="5"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="B105" s="5"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="B106" s="5"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="B107" s="5"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="5"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="B109" s="5"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="B110" s="5"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="B111" s="5"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="B112" s="5"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="B114" s="5"/>
+      <c r="B114" s="9"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="B116" s="5"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="B117" s="5"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="5"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="B119" s="5"/>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="B120" s="5"/>
+      <c r="B120" s="9"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="B121" s="5"/>
+      <c r="B121" s="9"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="B122" s="5"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
-      <c r="B123" s="5"/>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="5"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="B125" s="5"/>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="5"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-      <c r="B127" s="5"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="5"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
-      <c r="B129" s="5"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="B130" s="5"/>
+      <c r="B130" s="9"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="B131" s="5"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132" s="5"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="B133" s="5"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-      <c r="B134" s="5"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-      <c r="B135" s="5"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-      <c r="B136" s="5"/>
+      <c r="B136" s="9"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="B137" s="5"/>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="B138" s="5"/>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-      <c r="B139" s="5"/>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140" s="5"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="B141" s="5"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142" s="5"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="5"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="5"/>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-      <c r="B145" s="5"/>
+      <c r="B145" s="9"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="5"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="B147" s="5"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="B148" s="5"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="B149" s="5"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="B150" s="5"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-      <c r="B151" s="5"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-      <c r="B152" s="5"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="B153" s="5"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-      <c r="B154" s="5"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-      <c r="B155" s="5"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-      <c r="B156" s="5"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-      <c r="B157" s="5"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-      <c r="B158" s="5"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-      <c r="B159" s="5"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="B160" s="5"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="B161" s="5"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="B162" s="5"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-      <c r="B163" s="5"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-      <c r="B164" s="5"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-      <c r="B165" s="5"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="B166" s="5"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-      <c r="B167" s="5"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="B168" s="5"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="B169" s="5"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="B170" s="5"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="B171" s="5"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="B172" s="5"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="B173" s="5"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-      <c r="B174" s="5"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="B175" s="5"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-      <c r="B176" s="5"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
-      <c r="B177" s="5"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
-      <c r="B178" s="5"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-      <c r="B179" s="5"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
-      <c r="B180" s="5"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-      <c r="B181" s="5"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="B182" s="5"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-      <c r="B183" s="5"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
-      <c r="B184" s="5"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="B185" s="5"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="5"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
-      <c r="B187" s="5"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="5"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-      <c r="B189" s="5"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-      <c r="B190" s="5"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="B191" s="5"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="B192" s="5"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
-      <c r="B193" s="5"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-      <c r="B194" s="5"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="B195" s="5"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-      <c r="B196" s="5"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-      <c r="B197" s="5"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
-      <c r="B198" s="5"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
-      <c r="B199" s="5"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
-      <c r="B200" s="5"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
-      <c r="B201" s="5"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-      <c r="B202" s="5"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
-      <c r="B203" s="5"/>
+      <c r="B203" s="9"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
-      <c r="B204" s="5"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
-      <c r="B205" s="5"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
-      <c r="B206" s="5"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-      <c r="B207" s="5"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
-      <c r="B208" s="5"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
-      <c r="B209" s="5"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
-      <c r="B210" s="5"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
-      <c r="B211" s="5"/>
+      <c r="B211" s="9"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="B212" s="5"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
-      <c r="B213" s="5"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="B214" s="5"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-      <c r="B215" s="5"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-      <c r="B216" s="5"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-      <c r="B217" s="5"/>
+      <c r="B217" s="9"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
-      <c r="B218" s="5"/>
+      <c r="B218" s="9"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-      <c r="B219" s="5"/>
+      <c r="B219" s="9"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-      <c r="B220" s="5"/>
+      <c r="B220" s="9"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
-      <c r="B221" s="5"/>
+      <c r="B221" s="9"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="B222" s="5"/>
+      <c r="B222" s="9"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-      <c r="B223" s="5"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="B224" s="5"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
-      <c r="B225" s="5"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
-      <c r="B226" s="5"/>
+      <c r="B226" s="9"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-      <c r="B227" s="5"/>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-      <c r="B228" s="5"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
-      <c r="B229" s="5"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
-      <c r="B230" s="5"/>
+      <c r="B230" s="9"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
-      <c r="B231" s="5"/>
+      <c r="B231" s="9"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
-      <c r="B232" s="5"/>
+      <c r="B232" s="9"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
-      <c r="B233" s="5"/>
+      <c r="B233" s="9"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
-      <c r="B234" s="5"/>
+      <c r="B234" s="9"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
-      <c r="B235" s="5"/>
+      <c r="B235" s="9"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
-      <c r="B236" s="5"/>
+      <c r="B236" s="9"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
-      <c r="B237" s="5"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
-      <c r="B238" s="5"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
-      <c r="B239" s="5"/>
+      <c r="B239" s="9"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
-      <c r="B240" s="5"/>
+      <c r="B240" s="9"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-      <c r="B241" s="5"/>
+      <c r="B241" s="9"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
-      <c r="B242" s="5"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
-      <c r="B243" s="5"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
-      <c r="B244" s="5"/>
+      <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
-      <c r="B245" s="5"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-      <c r="B246" s="5"/>
+      <c r="B246" s="9"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
-      <c r="B247" s="5"/>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
-      <c r="B248" s="5"/>
+      <c r="B248" s="9"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
-      <c r="B249" s="5"/>
+      <c r="B249" s="9"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
-      <c r="B250" s="5"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
-      <c r="B251" s="5"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
-      <c r="B252" s="5"/>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
-      <c r="B253" s="5"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
-      <c r="B254" s="5"/>
+      <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
-      <c r="B255" s="5"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
-      <c r="B256" s="5"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
-      <c r="B257" s="5"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
-      <c r="B258" s="5"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
-      <c r="B259" s="5"/>
+      <c r="B259" s="9"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
-      <c r="B260" s="5"/>
+      <c r="B260" s="9"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
-      <c r="B261" s="5"/>
+      <c r="B261" s="9"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
-      <c r="B262" s="5"/>
+      <c r="B262" s="9"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
-      <c r="B263" s="5"/>
+      <c r="B263" s="9"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
-      <c r="B264" s="5"/>
+      <c r="B264" s="9"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
-      <c r="B265" s="5"/>
+      <c r="B265" s="9"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
-      <c r="B266" s="5"/>
+      <c r="B266" s="9"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
-      <c r="B267" s="5"/>
+      <c r="B267" s="9"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
-      <c r="B268" s="5"/>
+      <c r="B268" s="9"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
-      <c r="B269" s="5"/>
+      <c r="B269" s="9"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
-      <c r="B270" s="5"/>
+      <c r="B270" s="9"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
-      <c r="B271" s="5"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
-      <c r="B272" s="5"/>
+      <c r="B272" s="9"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
-      <c r="B273" s="5"/>
+      <c r="B273" s="9"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
-      <c r="B274" s="5"/>
+      <c r="B274" s="9"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
-      <c r="B275" s="5"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
-      <c r="B276" s="5"/>
+      <c r="B276" s="9"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
-      <c r="B277" s="5"/>
+      <c r="B277" s="9"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
-      <c r="B278" s="5"/>
+      <c r="B278" s="9"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
-      <c r="B279" s="5"/>
+      <c r="B279" s="9"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
-      <c r="B280" s="5"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
-      <c r="B281" s="5"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
-      <c r="B282" s="5"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
-      <c r="B283" s="5"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
-      <c r="B284" s="5"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
-      <c r="B285" s="5"/>
+      <c r="B285" s="9"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
-      <c r="B286" s="5"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
-      <c r="B287" s="5"/>
+      <c r="B287" s="9"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
-      <c r="B288" s="5"/>
+      <c r="B288" s="9"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
-      <c r="B289" s="5"/>
+      <c r="B289" s="9"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
-      <c r="B290" s="5"/>
+      <c r="B290" s="9"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
-      <c r="B291" s="5"/>
+      <c r="B291" s="9"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
-      <c r="B292" s="5"/>
+      <c r="B292" s="9"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
-      <c r="B293" s="5"/>
+      <c r="B293" s="9"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
-      <c r="B294" s="5"/>
+      <c r="B294" s="9"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
-      <c r="B295" s="5"/>
+      <c r="B295" s="9"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
-      <c r="B296" s="5"/>
+      <c r="B296" s="9"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
-      <c r="B297" s="5"/>
+      <c r="B297" s="9"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
-      <c r="B298" s="5"/>
+      <c r="B298" s="9"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
-      <c r="B299" s="5"/>
+      <c r="B299" s="9"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
-      <c r="B300" s="5"/>
+      <c r="B300" s="9"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
-      <c r="B301" s="5"/>
+      <c r="B301" s="9"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
-      <c r="B302" s="5"/>
+      <c r="B302" s="9"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
-      <c r="B303" s="5"/>
+      <c r="B303" s="9"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
-      <c r="B304" s="5"/>
+      <c r="B304" s="9"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
-      <c r="B305" s="5"/>
+      <c r="B305" s="9"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
-      <c r="B306" s="5"/>
+      <c r="B306" s="9"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
-      <c r="B307" s="5"/>
+      <c r="B307" s="9"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
-      <c r="B308" s="5"/>
+      <c r="B308" s="9"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
-      <c r="B309" s="5"/>
+      <c r="B309" s="9"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
-      <c r="B310" s="5"/>
+      <c r="B310" s="9"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
-      <c r="B311" s="5"/>
+      <c r="B311" s="9"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
-      <c r="B312" s="5"/>
+      <c r="B312" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8cTvTiU4B9LjzLXrA3u+rlRBCt2Q8DNLskHOzBmFZ0wO3F3p8YoSuD6BgW6bFA/T+0gRcf8t8TBf1Yq9iulO8Q==" saltValue="twRCtuSEAfmYKvfPZHH6QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PfqGGQMgSE9F3rgfOtZnMQfga/XWJ/IN3q+CtBKXHKIJKVZCWCb5O45X3iKZd3Nne3fF+g9woaqnVuBnNYrq9Q==" saltValue="mKdO1c23bA1hJ1BwJ2Kg2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
@@ -1820,11 +1831,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{6613DF2B-F5D9-4631-A280-D26EEEEF88C3}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B4:B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B31 B33 B35 B37 B39 B41 B43 B45 B47 B49 B51 B53 B55 B57 B59 B61 B63 B65 B67 B69 B71 B73 B75 B77 B79 B81 B83 B85 B87 B89 B91 B93 B95 B97 B99 B101 B103 B105 B107 B109 B111 B113 B115 B117 B119 B121 B123 B125 B127 B129 B131 B133 B135 B137 B139 B141 B143 B145 B147 B149 B151 B153 B155 B157 B159 B161 B163 B165 B167 B169 B171 B173 B175 B177 B179 B181 B183 B185 B187 B189 B191 B193 B195 B197 B199 B201 B203 B205 B207 B209 B211 B213 B215 B217 B219 B221 B223 B225 B227 B229 B231 B233 B235 B237 B239 B241 B243 B245 B247 B249 B251 B253 B255 B257 B259 B261 B263 B265 B267 B269 B271 B273 B275 B277 B279 B281 B283 B285 B287 B289 B291 B293 B295 B297 B299 B301 B303 B305 B307 B309 B311" xr:uid="{87174902-7F7B-4266-A824-BF5BE16CC979}">
+    <dataValidation type="whole" showErrorMessage="1" prompt="_x000a_" sqref="B312" xr:uid="{8BA3640D-2C3A-461A-8F28-AC9CF8857833}">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" showErrorMessage="1" prompt="_x000a_" sqref="B6 B8 B10 B12 B14 B16 B18 B20 B22 B24 B26 B28 B30 B32 B34 B36 B38 B40 B42 B44 B46 B48 B50 B52 B54 B56 B58 B60 B62 B64 B66 B68 B70 B72 B74 B76 B78 B80 B82 B84 B86 B88 B90 B92 B94 B96 B98 B100 B102 B104 B106 B108 B110 B112 B114 B116 B118 B120 B122 B124 B126 B128 B130 B132 B134 B136 B138 B140 B142 B144 B146 B148 B150 B152 B154 B156 B158 B160 B162 B164 B166 B168 B170 B172 B174 B176 B178 B180 B182 B184 B186 B188 B190 B192 B194 B196 B198 B200 B202 B204 B206 B208 B210 B212 B214 B216 B218 B220 B222 B224 B226 B228 B230 B232 B234 B236 B238 B240 B242 B244 B246 B248 B250 B252 B254 B256 B258 B260 B262 B264 B266 B268 B270 B272 B274 B276 B278 B280 B282 B284 B286 B288 B290 B292 B294 B296 B298 B300 B302 B304 B306 B308 B310 B312" xr:uid="{8BA3640D-2C3A-461A-8F28-AC9CF8857833}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B4:B311" xr:uid="{88DFFBCF-F127-42C3-91FF-719CFB985D29}">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
@@ -1836,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616CFF97-73C2-4BE9-A515-0B1EF0824E2B}">
-  <dimension ref="A3:E19"/>
+  <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,16 +1862,16 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1871,76 +1882,101 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2017</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2025</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2026</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2027</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2028</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2029</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2030</v>
       </c>
     </row>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.2 Plantilla_Generacion_Distribuida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD9EB8-D3EC-436D-AB23-1DF3A56D9E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E37D57-8124-42AF-8726-1505BFAA548C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6517F80B-C8FB-4444-B04E-B9BE9BC23965}"/>
   </bookViews>
   <sheets>
     <sheet name="Generación Distribuida" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -189,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -212,19 +211,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -551,7 +546,7 @@
   <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +564,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -591,1239 +586,1239 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="9"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="10"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="9"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="9"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="9"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="9"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="9"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="9"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="9"/>
+      <c r="B63" s="10"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="9"/>
+      <c r="B64" s="10"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="9"/>
+      <c r="B65" s="10"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="9"/>
+      <c r="B66" s="10"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="9"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="9"/>
+      <c r="B68" s="10"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="9"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="9"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="9"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="9"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="9"/>
+      <c r="B73" s="10"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="9"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="9"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="9"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="9"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="9"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="9"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="9"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="9"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="9"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="9"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="9"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="9"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="9"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="9"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="9"/>
+      <c r="B90" s="10"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="B91" s="9"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="9"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="B93" s="9"/>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="B94" s="9"/>
+      <c r="B94" s="10"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="9"/>
+      <c r="B95" s="10"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="10"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="9"/>
+      <c r="B97" s="10"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="9"/>
+      <c r="B98" s="10"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="B99" s="9"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="10"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="10"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="B102" s="9"/>
+      <c r="B102" s="10"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="B103" s="9"/>
+      <c r="B103" s="10"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="9"/>
+      <c r="B104" s="10"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="10"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="B106" s="9"/>
+      <c r="B106" s="10"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="10"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="B108" s="9"/>
+      <c r="B108" s="10"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="B109" s="9"/>
+      <c r="B109" s="10"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="B110" s="9"/>
+      <c r="B110" s="10"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="B111" s="9"/>
+      <c r="B111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="B112" s="9"/>
+      <c r="B112" s="10"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="B113" s="9"/>
+      <c r="B113" s="10"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="B114" s="9"/>
+      <c r="B114" s="10"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-      <c r="B115" s="9"/>
+      <c r="B115" s="10"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="B116" s="9"/>
+      <c r="B116" s="10"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="B117" s="9"/>
+      <c r="B117" s="10"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="B118" s="9"/>
+      <c r="B118" s="10"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="B119" s="9"/>
+      <c r="B119" s="10"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="B120" s="9"/>
+      <c r="B120" s="10"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="B121" s="9"/>
+      <c r="B121" s="10"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="B122" s="9"/>
+      <c r="B122" s="10"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
-      <c r="B123" s="9"/>
+      <c r="B123" s="10"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="9"/>
+      <c r="B124" s="10"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="B125" s="9"/>
+      <c r="B125" s="10"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="9"/>
+      <c r="B126" s="10"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-      <c r="B127" s="9"/>
+      <c r="B127" s="10"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="9"/>
+      <c r="B128" s="10"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
-      <c r="B129" s="9"/>
+      <c r="B129" s="10"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="B130" s="9"/>
+      <c r="B130" s="10"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="B131" s="9"/>
+      <c r="B131" s="10"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132" s="9"/>
+      <c r="B132" s="10"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="B133" s="9"/>
+      <c r="B133" s="10"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-      <c r="B134" s="9"/>
+      <c r="B134" s="10"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-      <c r="B135" s="9"/>
+      <c r="B135" s="10"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-      <c r="B136" s="9"/>
+      <c r="B136" s="10"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="B137" s="9"/>
+      <c r="B137" s="10"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="B138" s="9"/>
+      <c r="B138" s="10"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-      <c r="B139" s="9"/>
+      <c r="B139" s="10"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140" s="9"/>
+      <c r="B140" s="10"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="B141" s="9"/>
+      <c r="B141" s="10"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142" s="9"/>
+      <c r="B142" s="10"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="9"/>
+      <c r="B143" s="10"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="9"/>
+      <c r="B144" s="10"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-      <c r="B145" s="9"/>
+      <c r="B145" s="10"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="9"/>
+      <c r="B146" s="10"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="B147" s="9"/>
+      <c r="B147" s="10"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="B148" s="9"/>
+      <c r="B148" s="10"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="B149" s="9"/>
+      <c r="B149" s="10"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="B150" s="9"/>
+      <c r="B150" s="10"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-      <c r="B151" s="9"/>
+      <c r="B151" s="10"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-      <c r="B152" s="9"/>
+      <c r="B152" s="10"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="B153" s="9"/>
+      <c r="B153" s="10"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-      <c r="B154" s="9"/>
+      <c r="B154" s="10"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-      <c r="B155" s="9"/>
+      <c r="B155" s="10"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-      <c r="B156" s="9"/>
+      <c r="B156" s="10"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-      <c r="B157" s="9"/>
+      <c r="B157" s="10"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-      <c r="B158" s="9"/>
+      <c r="B158" s="10"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-      <c r="B159" s="9"/>
+      <c r="B159" s="10"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="B160" s="9"/>
+      <c r="B160" s="10"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="B161" s="9"/>
+      <c r="B161" s="10"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="B162" s="9"/>
+      <c r="B162" s="10"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-      <c r="B163" s="9"/>
+      <c r="B163" s="10"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-      <c r="B164" s="9"/>
+      <c r="B164" s="10"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-      <c r="B165" s="9"/>
+      <c r="B165" s="10"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="B166" s="9"/>
+      <c r="B166" s="10"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-      <c r="B167" s="9"/>
+      <c r="B167" s="10"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="B168" s="9"/>
+      <c r="B168" s="10"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="B169" s="9"/>
+      <c r="B169" s="10"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="B170" s="9"/>
+      <c r="B170" s="10"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="B171" s="9"/>
+      <c r="B171" s="10"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="B172" s="9"/>
+      <c r="B172" s="10"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="B173" s="9"/>
+      <c r="B173" s="10"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-      <c r="B174" s="9"/>
+      <c r="B174" s="10"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="B175" s="9"/>
+      <c r="B175" s="10"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-      <c r="B176" s="9"/>
+      <c r="B176" s="10"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
-      <c r="B177" s="9"/>
+      <c r="B177" s="10"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
-      <c r="B178" s="9"/>
+      <c r="B178" s="10"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-      <c r="B179" s="9"/>
+      <c r="B179" s="10"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
-      <c r="B180" s="9"/>
+      <c r="B180" s="10"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-      <c r="B181" s="9"/>
+      <c r="B181" s="10"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="B182" s="9"/>
+      <c r="B182" s="10"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-      <c r="B183" s="9"/>
+      <c r="B183" s="10"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
-      <c r="B184" s="9"/>
+      <c r="B184" s="10"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="B185" s="9"/>
+      <c r="B185" s="10"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="B186" s="9"/>
+      <c r="B186" s="10"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
-      <c r="B187" s="9"/>
+      <c r="B187" s="10"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="9"/>
+      <c r="B188" s="10"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-      <c r="B189" s="9"/>
+      <c r="B189" s="10"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-      <c r="B190" s="9"/>
+      <c r="B190" s="10"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="B191" s="9"/>
+      <c r="B191" s="10"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="B192" s="9"/>
+      <c r="B192" s="10"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
-      <c r="B193" s="9"/>
+      <c r="B193" s="10"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-      <c r="B194" s="9"/>
+      <c r="B194" s="10"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="B195" s="9"/>
+      <c r="B195" s="10"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-      <c r="B196" s="9"/>
+      <c r="B196" s="10"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-      <c r="B197" s="9"/>
+      <c r="B197" s="10"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
-      <c r="B198" s="9"/>
+      <c r="B198" s="10"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
-      <c r="B199" s="9"/>
+      <c r="B199" s="10"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
-      <c r="B200" s="9"/>
+      <c r="B200" s="10"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
-      <c r="B201" s="9"/>
+      <c r="B201" s="10"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-      <c r="B202" s="9"/>
+      <c r="B202" s="10"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
-      <c r="B203" s="9"/>
+      <c r="B203" s="10"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
-      <c r="B204" s="9"/>
+      <c r="B204" s="10"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
-      <c r="B205" s="9"/>
+      <c r="B205" s="10"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
-      <c r="B206" s="9"/>
+      <c r="B206" s="10"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-      <c r="B207" s="9"/>
+      <c r="B207" s="10"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
-      <c r="B208" s="9"/>
+      <c r="B208" s="10"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
-      <c r="B209" s="9"/>
+      <c r="B209" s="10"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
-      <c r="B210" s="9"/>
+      <c r="B210" s="10"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
-      <c r="B211" s="9"/>
+      <c r="B211" s="10"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="B212" s="9"/>
+      <c r="B212" s="10"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
-      <c r="B213" s="9"/>
+      <c r="B213" s="10"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="B214" s="9"/>
+      <c r="B214" s="10"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-      <c r="B215" s="9"/>
+      <c r="B215" s="10"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-      <c r="B216" s="9"/>
+      <c r="B216" s="10"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-      <c r="B217" s="9"/>
+      <c r="B217" s="10"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
-      <c r="B218" s="9"/>
+      <c r="B218" s="10"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-      <c r="B219" s="9"/>
+      <c r="B219" s="10"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-      <c r="B220" s="9"/>
+      <c r="B220" s="10"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
-      <c r="B221" s="9"/>
+      <c r="B221" s="10"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="B222" s="9"/>
+      <c r="B222" s="10"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-      <c r="B223" s="9"/>
+      <c r="B223" s="10"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="B224" s="9"/>
+      <c r="B224" s="10"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
-      <c r="B225" s="9"/>
+      <c r="B225" s="10"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
-      <c r="B226" s="9"/>
+      <c r="B226" s="10"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="10"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-      <c r="B228" s="9"/>
+      <c r="B228" s="10"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
-      <c r="B229" s="9"/>
+      <c r="B229" s="10"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
-      <c r="B230" s="9"/>
+      <c r="B230" s="10"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
-      <c r="B231" s="9"/>
+      <c r="B231" s="10"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
-      <c r="B232" s="9"/>
+      <c r="B232" s="10"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
-      <c r="B233" s="9"/>
+      <c r="B233" s="10"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
-      <c r="B234" s="9"/>
+      <c r="B234" s="10"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
-      <c r="B235" s="9"/>
+      <c r="B235" s="10"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
-      <c r="B236" s="9"/>
+      <c r="B236" s="10"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
-      <c r="B237" s="9"/>
+      <c r="B237" s="10"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
-      <c r="B238" s="9"/>
+      <c r="B238" s="10"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
-      <c r="B239" s="9"/>
+      <c r="B239" s="10"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
-      <c r="B240" s="9"/>
+      <c r="B240" s="10"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-      <c r="B241" s="9"/>
+      <c r="B241" s="10"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
-      <c r="B242" s="9"/>
+      <c r="B242" s="10"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
-      <c r="B243" s="9"/>
+      <c r="B243" s="10"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
-      <c r="B244" s="9"/>
+      <c r="B244" s="10"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
-      <c r="B245" s="9"/>
+      <c r="B245" s="10"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-      <c r="B246" s="9"/>
+      <c r="B246" s="10"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
-      <c r="B247" s="9"/>
+      <c r="B247" s="10"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
-      <c r="B248" s="9"/>
+      <c r="B248" s="10"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
-      <c r="B249" s="9"/>
+      <c r="B249" s="10"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
-      <c r="B250" s="9"/>
+      <c r="B250" s="10"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
-      <c r="B251" s="9"/>
+      <c r="B251" s="10"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
-      <c r="B252" s="9"/>
+      <c r="B252" s="10"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
-      <c r="B253" s="9"/>
+      <c r="B253" s="10"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
-      <c r="B254" s="9"/>
+      <c r="B254" s="10"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
-      <c r="B255" s="9"/>
+      <c r="B255" s="10"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
-      <c r="B256" s="9"/>
+      <c r="B256" s="10"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
-      <c r="B257" s="9"/>
+      <c r="B257" s="10"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
-      <c r="B258" s="9"/>
+      <c r="B258" s="10"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
-      <c r="B259" s="9"/>
+      <c r="B259" s="10"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
-      <c r="B260" s="9"/>
+      <c r="B260" s="10"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
-      <c r="B261" s="9"/>
+      <c r="B261" s="10"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
-      <c r="B262" s="9"/>
+      <c r="B262" s="10"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
-      <c r="B263" s="9"/>
+      <c r="B263" s="10"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
-      <c r="B264" s="9"/>
+      <c r="B264" s="10"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
-      <c r="B265" s="9"/>
+      <c r="B265" s="10"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
-      <c r="B266" s="9"/>
+      <c r="B266" s="10"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
-      <c r="B267" s="9"/>
+      <c r="B267" s="10"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
-      <c r="B268" s="9"/>
+      <c r="B268" s="10"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
-      <c r="B269" s="9"/>
+      <c r="B269" s="10"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
-      <c r="B270" s="9"/>
+      <c r="B270" s="10"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
-      <c r="B271" s="9"/>
+      <c r="B271" s="10"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
-      <c r="B272" s="9"/>
+      <c r="B272" s="10"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
-      <c r="B273" s="9"/>
+      <c r="B273" s="10"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
-      <c r="B274" s="9"/>
+      <c r="B274" s="10"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
-      <c r="B275" s="9"/>
+      <c r="B275" s="10"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
-      <c r="B276" s="9"/>
+      <c r="B276" s="10"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
-      <c r="B277" s="9"/>
+      <c r="B277" s="10"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
-      <c r="B278" s="9"/>
+      <c r="B278" s="10"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
-      <c r="B279" s="9"/>
+      <c r="B279" s="10"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
-      <c r="B280" s="9"/>
+      <c r="B280" s="10"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
-      <c r="B281" s="9"/>
+      <c r="B281" s="10"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
-      <c r="B282" s="9"/>
+      <c r="B282" s="10"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
-      <c r="B283" s="9"/>
+      <c r="B283" s="10"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
-      <c r="B284" s="9"/>
+      <c r="B284" s="10"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
-      <c r="B285" s="9"/>
+      <c r="B285" s="10"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
-      <c r="B286" s="9"/>
+      <c r="B286" s="10"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
-      <c r="B287" s="9"/>
+      <c r="B287" s="10"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
-      <c r="B288" s="9"/>
+      <c r="B288" s="10"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
-      <c r="B289" s="9"/>
+      <c r="B289" s="10"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
-      <c r="B290" s="9"/>
+      <c r="B290" s="10"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
-      <c r="B291" s="9"/>
+      <c r="B291" s="10"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
-      <c r="B292" s="9"/>
+      <c r="B292" s="10"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
-      <c r="B293" s="9"/>
+      <c r="B293" s="10"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
-      <c r="B294" s="9"/>
+      <c r="B294" s="10"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
-      <c r="B295" s="9"/>
+      <c r="B295" s="10"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
-      <c r="B296" s="9"/>
+      <c r="B296" s="10"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
-      <c r="B297" s="9"/>
+      <c r="B297" s="10"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
-      <c r="B298" s="9"/>
+      <c r="B298" s="10"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
-      <c r="B299" s="9"/>
+      <c r="B299" s="10"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
-      <c r="B300" s="9"/>
+      <c r="B300" s="10"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
-      <c r="B301" s="9"/>
+      <c r="B301" s="10"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
-      <c r="B302" s="9"/>
+      <c r="B302" s="10"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
-      <c r="B303" s="9"/>
+      <c r="B303" s="10"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
-      <c r="B304" s="9"/>
+      <c r="B304" s="10"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
-      <c r="B305" s="9"/>
+      <c r="B305" s="10"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
-      <c r="B306" s="9"/>
+      <c r="B306" s="10"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
-      <c r="B307" s="9"/>
+      <c r="B307" s="10"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
-      <c r="B308" s="9"/>
+      <c r="B308" s="10"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
-      <c r="B309" s="9"/>
+      <c r="B309" s="10"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
-      <c r="B310" s="9"/>
+      <c r="B310" s="10"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
-      <c r="B311" s="9"/>
+      <c r="B311" s="10"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PfqGGQMgSE9F3rgfOtZnMQfga/XWJ/IN3q+CtBKXHKIJKVZCWCb5O45X3iKZd3Nne3fF+g9woaqnVuBnNYrq9Q==" saltValue="mKdO1c23bA1hJ1BwJ2Kg2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BmIBwIzeNhLKgtXuCXp73gzaKJEU4DUJ3NT7nRMRUJPBsP7jG4JWGWMConxqevFHuWIg4h8+UTZ9Hk8SqesA0g==" saltValue="wOIBayGU71ZUFpSNT004ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
